--- a/Analyzed/try6/data_2008.xlsx
+++ b/Analyzed/try6/data_2008.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>CZcomb</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>XZcomb</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -547,13 +552,13 @@
         <v>69.35899077228321</v>
       </c>
       <c r="N2">
-        <v>150.052</v>
+        <v>574.168</v>
       </c>
       <c r="O2">
-        <v>1038.15</v>
+        <v>-111.85</v>
       </c>
       <c r="P2">
-        <v>461.6925912</v>
+        <v>376.0746823693222</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -571,10 +576,10 @@
         <v>1</v>
       </c>
       <c r="V2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -583,15 +588,18 @@
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
         <v>0</v>
       </c>
     </row>
@@ -638,13 +646,13 @@
         <v>52.48942119317996</v>
       </c>
       <c r="N3">
-        <v>142.94</v>
+        <v>484.5120000000001</v>
       </c>
       <c r="O3">
-        <v>1016.59</v>
+        <v>-133.41</v>
       </c>
       <c r="P3">
-        <v>401.9319576</v>
+        <v>310.4048218672213</v>
       </c>
       <c r="Q3">
         <v>2</v>
@@ -662,19 +670,19 @@
         <v>6</v>
       </c>
       <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>3</v>
+      </c>
+      <c r="X3">
         <v>4</v>
       </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>5</v>
-      </c>
       <c r="Y3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA3">
         <v>2</v>
@@ -683,7 +691,10 @@
         <v>0</v>
       </c>
       <c r="AC3">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -729,13 +740,13 @@
         <v>65.27134836854964</v>
       </c>
       <c r="N4">
-        <v>172.704</v>
+        <v>468.384</v>
       </c>
       <c r="O4">
-        <v>945.97</v>
+        <v>-104.03</v>
       </c>
       <c r="P4">
-        <v>418.6421064</v>
+        <v>322.1833499309961</v>
       </c>
       <c r="Q4">
         <v>3</v>
@@ -753,10 +764,10 @@
         <v>2</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -765,16 +776,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -820,13 +834,13 @@
         <v>66.68920217536139</v>
       </c>
       <c r="N5">
-        <v>155.96</v>
+        <v>534.5200000000001</v>
       </c>
       <c r="O5">
-        <v>1145.23</v>
+        <v>-154.77</v>
       </c>
       <c r="P5">
-        <v>405.2318112</v>
+        <v>310.0689401462927</v>
       </c>
       <c r="Q5">
         <v>4</v>
@@ -844,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5">
+        <v>2</v>
+      </c>
+      <c r="X5">
         <v>3</v>
       </c>
-      <c r="X5">
-        <v>2</v>
-      </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <v>2</v>
@@ -866,6 +880,9 @@
       </c>
       <c r="AC5">
         <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -911,13 +928,13 @@
         <v>59.7425274477666</v>
       </c>
       <c r="N6">
-        <v>176.204</v>
+        <v>388.7520000000001</v>
       </c>
       <c r="O6">
-        <v>956.88</v>
+        <v>-93.12</v>
       </c>
       <c r="P6">
-        <v>455.6434464</v>
+        <v>357.4121789617175</v>
       </c>
       <c r="Q6">
         <v>5</v>
@@ -935,28 +952,31 @@
         <v>2</v>
       </c>
       <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6">
         <v>4</v>
-      </c>
-      <c r="W6">
-        <v>2</v>
       </c>
       <c r="X6">
         <v>3</v>
       </c>
       <c r="Y6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>3</v>
       </c>
       <c r="AB6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC6">
         <v>3</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1002,13 +1022,13 @@
         <v>79.50576500352203</v>
       </c>
       <c r="N7">
-        <v>176.176</v>
+        <v>409.472</v>
       </c>
       <c r="O7">
-        <v>1080.6</v>
+        <v>-119.4</v>
       </c>
       <c r="P7">
-        <v>360.7884072</v>
+        <v>256.7034779076024</v>
       </c>
       <c r="Q7">
         <v>6</v>
@@ -1026,19 +1046,19 @@
         <v>5</v>
       </c>
       <c r="V7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7">
         <v>2</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>2</v>
@@ -1047,6 +1067,9 @@
         <v>0</v>
       </c>
       <c r="AC7">
+        <v>2</v>
+      </c>
+      <c r="AD7">
         <v>2</v>
       </c>
     </row>
@@ -1093,13 +1116,13 @@
         <v>67.93480806793882</v>
       </c>
       <c r="N8">
-        <v>54.18</v>
+        <v>380.632</v>
       </c>
       <c r="O8">
-        <v>1069.94</v>
+        <v>-180.06</v>
       </c>
       <c r="P8">
-        <v>428.8530312</v>
+        <v>334.2551161033784</v>
       </c>
       <c r="Q8">
         <v>7</v>
@@ -1120,13 +1143,13 @@
         <v>0</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="X8">
         <v>4</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1138,6 +1161,9 @@
         <v>0</v>
       </c>
       <c r="AC8">
+        <v>1</v>
+      </c>
+      <c r="AD8">
         <v>1</v>
       </c>
     </row>
@@ -1184,13 +1210,13 @@
         <v>65.21032322370532</v>
       </c>
       <c r="N9">
-        <v>37.184</v>
+        <v>342.496</v>
       </c>
       <c r="O9">
-        <v>1032.63</v>
+        <v>-167.37</v>
       </c>
       <c r="P9">
-        <v>426.4756056</v>
+        <v>328.8582086045855</v>
       </c>
       <c r="Q9">
         <v>8</v>
@@ -1211,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>4</v>
@@ -1229,6 +1255,9 @@
         <v>0</v>
       </c>
       <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
         <v>1</v>
       </c>
     </row>
